--- a/aba_roy_pivot_table.xlsx
+++ b/aba_roy_pivot_table.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>player_x</t>
+    <t>player</t>
   </si>
   <si>
     <t>award</t>

--- a/aba_roy_pivot_table.xlsx
+++ b/aba_roy_pivot_table.xlsx
@@ -432,7 +432,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
